--- a/test-data/http-status-code-data.xlsx
+++ b/test-data/http-status-code-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashkinaea/IdeaProjects/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD925E-CAF1-0F4D-906D-607C88E866D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D4F8CC-105F-D846-874D-C3ABF0C0F0D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{89869B2E-BF98-504A-B4D7-F1D6BA1E3BCD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>/news-events/cancer-currents-blog</t>
   </si>
@@ -111,13 +111,16 @@
   </si>
   <si>
     <t>/nano/espanol/cancer/sobrellevar/sentim</t>
+  </si>
+  <si>
+    <t>/Common/PopUps/popDefinition.aspx?id=485395&amp;version=healthprofessional&amp;language=English&amp;dictionary=genetic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +143,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,10 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470593C4-EE72-AE43-9D33-758995E540E6}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,8 +509,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -508,7 +518,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -516,7 +526,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -524,7 +534,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -532,7 +542,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -540,7 +550,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -548,7 +558,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -556,7 +566,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -564,7 +574,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -572,7 +582,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -580,7 +590,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -588,7 +598,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -596,7 +606,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -604,7 +614,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -612,7 +622,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -620,7 +630,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -628,7 +638,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -636,7 +646,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -644,7 +654,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -652,23 +662,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>404</v>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>404</v>
@@ -676,7 +686,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>404</v>
@@ -684,9 +694,17 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <v>404</v>
       </c>
     </row>
